--- a/biology/Zoologie/Chorthippus/Chorthippus.xlsx
+++ b/biology/Zoologie/Chorthippus/Chorthippus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus est un genre de criquets de la famille des Acrididae.
 Chez certaines espèces, rarement, des individus roses ou violacés sont observés (cette couleur disparaissant après la mort de l'animal et persistant quelques heures sur les mues).
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Orthoptera Species File (1er avril 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Orthoptera Species File (1er avril 2010) :
 Sous-genre Chorthippus (Altichorthippus) Jago, 1971
 Chorthippus aroliumulus Hsia &amp; Jin, 1982
 Chorthippus conicaudatus Hsia &amp; Jin, 1982
